--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed4/result_data_KNN.xlsx
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.67</v>
+        <v>-10.85</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.946</v>
+        <v>-11.62</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.806</v>
+        <v>-12.298</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-12.951</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.834</v>
+        <v>-12.197</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.808</v>
+        <v>-10.537</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-13.201</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.5</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.198</v>
+        <v>-11.991</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.166</v>
+        <v>-13.262</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.13</v>
+        <v>-11.642</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
